--- a/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
+++ b/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04DAE40-742F-44FB-8940-A189B023BF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E650C1A-5723-4AE9-86AC-28F73D20A2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
+++ b/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA034700-0ADA-48D1-BA8D-7A65008C0BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17BDA2-A470-479B-BAD4-7855098F6802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZoneAffix" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -416,13 +416,145 @@
   </si>
   <si>
     <t>Coberto de Musgo</t>
+  </si>
+  <si>
+    <t>EA 23.253</t>
+  </si>
+  <si>
+    <t>warped</t>
+  </si>
+  <si>
+    <t>歪んだ</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>blasphemous</t>
+  </si>
+  <si>
+    <t>冒涜的な</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ruined</t>
+  </si>
+  <si>
+    <t>荒廃した</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>crumbling</t>
+  </si>
+  <si>
+    <t>崩れかけた</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>isolated</t>
+  </si>
+  <si>
+    <t>隔絶された</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>arcane</t>
+  </si>
+  <si>
+    <t>魔力に満ちた</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>生き生きとした</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>rustic</t>
+  </si>
+  <si>
+    <t>素朴な</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>guiding</t>
+  </si>
+  <si>
+    <t>導きの</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>earthy</t>
+  </si>
+  <si>
+    <t>土の香る</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>warded</t>
+  </si>
+  <si>
+    <t>護られた</t>
+  </si>
+  <si>
+    <t>Distorcido</t>
+  </si>
+  <si>
+    <t>Blasfemo</t>
+  </si>
+  <si>
+    <t>Arruinado</t>
+  </si>
+  <si>
+    <t>Desmoronando</t>
+  </si>
+  <si>
+    <t>Isolado</t>
+  </si>
+  <si>
+    <t>Arcano</t>
+  </si>
+  <si>
+    <t>Animado</t>
+  </si>
+  <si>
+    <t>Rústico</t>
+  </si>
+  <si>
+    <t>Guia</t>
+  </si>
+  <si>
+    <t>Terroso</t>
+  </si>
+  <si>
+    <t>Protegido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -793,21 +925,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -850,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -867,109 +999,109 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -986,7 +1118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +1135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1020,7 +1152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1037,7 +1169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1054,7 +1186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1071,7 +1203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1105,7 +1237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1122,7 +1254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1156,7 +1288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1173,7 +1305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1190,7 +1322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1207,7 +1339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1224,7 +1356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1241,7 +1373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1258,7 +1390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1275,7 +1407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -1292,7 +1424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -1309,7 +1441,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -1326,7 +1458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -1343,8 +1475,199 @@
         <v>97</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H32">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
+++ b/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17BDA2-A470-479B-BAD4-7855098F6802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8754D-B55C-4FBD-A09D-2FEEBD596044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZoneAffix" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -928,18 +928,18 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,449 +965,449 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>98</v>
       </c>
       <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C27" t="s">
         <v>125</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -1424,248 +1424,248 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
         <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H32">
-      <sortCondition ref="B2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H43">
+      <sortCondition ref="C2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
+++ b/PTBR/Lang/PTBR/Game/ZoneAffix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8754D-B55C-4FBD-A09D-2FEEBD596044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF292B-70CB-41A9-B01C-E4938F94E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZoneAffix" sheetId="1" r:id="rId1"/>
@@ -328,69 +328,9 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t xml:space="preserve">Caprichoso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esquecido  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selvagem  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espiritual  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perigoso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encantador  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estranho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trágico  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Úmido  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histórico  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desconhecido  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tradicional  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem Nome  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imutável  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proibido  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silencioso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encantado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Místico  </t>
-  </si>
-  <si>
     <t>Nebuloso</t>
   </si>
   <si>
-    <t xml:space="preserve">Sombrio  </t>
-  </si>
-  <si>
     <t>Comum</t>
   </si>
   <si>
@@ -548,6 +488,66 @@
   </si>
   <si>
     <t>Protegido</t>
+  </si>
+  <si>
+    <t>Caprichoso</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>Encantado</t>
+  </si>
+  <si>
+    <t>Encantador</t>
+  </si>
+  <si>
+    <t>Espiritual</t>
+  </si>
+  <si>
+    <t>Esquecido</t>
+  </si>
+  <si>
+    <t>Estranho</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Imutável</t>
+  </si>
+  <si>
+    <t>Místico</t>
+  </si>
+  <si>
+    <t>Perigoso</t>
+  </si>
+  <si>
+    <t>Proibido</t>
+  </si>
+  <si>
+    <t>Selvagem</t>
+  </si>
+  <si>
+    <t>Sem Nome</t>
+  </si>
+  <si>
+    <t>Silencioso</t>
+  </si>
+  <si>
+    <t>Sombrio</t>
+  </si>
+  <si>
+    <t>Tradicional</t>
+  </si>
+  <si>
+    <t>Trágico</t>
+  </si>
+  <si>
+    <t>Úmido</t>
+  </si>
+  <si>
+    <t>Velho</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -984,36 +984,36 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -1035,19 +1035,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1069,19 +1069,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
         <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -1126,7 +1126,7 @@
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1143,7 +1143,7 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
@@ -1154,19 +1154,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1174,16 +1174,16 @@
         <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1211,7 +1211,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
         <v>93</v>
@@ -1228,7 +1228,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
@@ -1245,7 +1245,7 @@
         <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1262,7 +1262,7 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1279,7 +1279,7 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -1290,19 +1290,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -1330,7 +1330,7 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1347,7 +1347,7 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
         <v>78</v>
@@ -1358,19 +1358,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -1398,7 +1398,7 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -1415,7 +1415,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
@@ -1432,7 +1432,7 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -1449,7 +1449,7 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
         <v>81</v>
@@ -1460,36 +1460,36 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -1517,7 +1517,7 @@
         <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -1534,7 +1534,7 @@
         <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
         <v>84</v>
@@ -1551,7 +1551,7 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -1568,7 +1568,7 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
         <v>90</v>
@@ -1579,19 +1579,19 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
         <v>72</v>
@@ -1619,7 +1619,7 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -1636,7 +1636,7 @@
         <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>63</v>
@@ -1653,7 +1653,7 @@
         <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
         <v>60</v>
